--- a/Численные методы/Метод_Зейделя.xlsx
+++ b/Численные методы/Метод_Зейделя.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>q=</t>
   </si>
@@ -27,9 +27,6 @@
     <t>x1=</t>
   </si>
   <si>
-    <t>delta1=</t>
-  </si>
-  <si>
     <t>n=</t>
   </si>
   <si>
@@ -46,6 +43,60 @@
   </si>
   <si>
     <t>x6=</t>
+  </si>
+  <si>
+    <t>Оранжевым выделана зона, в клетки которых необходимо и достаточно ввести данные</t>
+  </si>
+  <si>
+    <t>delta(n)=</t>
+  </si>
+  <si>
+    <t>x7=</t>
+  </si>
+  <si>
+    <t>x8=</t>
+  </si>
+  <si>
+    <t>x9=</t>
+  </si>
+  <si>
+    <t>x10=</t>
+  </si>
+  <si>
+    <t>x11=</t>
+  </si>
+  <si>
+    <t>x12=</t>
+  </si>
+  <si>
+    <t>x13=</t>
+  </si>
+  <si>
+    <t>x14=</t>
+  </si>
+  <si>
+    <t>x15=</t>
+  </si>
+  <si>
+    <t>x16=</t>
+  </si>
+  <si>
+    <t>x17=</t>
+  </si>
+  <si>
+    <t>x18=</t>
+  </si>
+  <si>
+    <t>x19=</t>
+  </si>
+  <si>
+    <t>x20=</t>
+  </si>
+  <si>
+    <t>x21=</t>
+  </si>
+  <si>
+    <t>x22=</t>
   </si>
 </sst>
 </file>
@@ -74,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -211,8 +268,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,7 +582,7 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,45 +595,53 @@
     <col min="7" max="7" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="17">
         <f>0.31/15</f>
         <v>2.0666666666666667E-2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="17">
         <f>-0.06/15</f>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="17">
         <f>-1.21/15</f>
         <v>-8.0666666666666664E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="18">
         <f>-1.19/15</f>
         <v>-7.9333333333333325E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="19">
         <f>0.25/1.23</f>
         <v>0.2032520325203252</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="19">
         <f>-0.21/1.23</f>
         <v>-0.17073170731707316</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="19">
         <f>-0.09/1.23</f>
         <v>-7.3170731707317069E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="20">
         <f>-1.21/1.23</f>
         <v>-0.98373983739837401</v>
       </c>
@@ -576,48 +649,48 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>MAX(ABS(SUM(B2:D2)),ABS(SUM(B3:D3)),ABS(SUM(B4:D4)),ABS(SUM(B5:D5)))</f>
+        <f>MAX(SUMPRODUCT(ABS(B2:D2)),SUMPRODUCT(ABS(B3:D3)),SUMPRODUCT(ABS(B4:D4)),SUMPRODUCT(ABS(B5:D5)))</f>
         <v>0.68749999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19">
         <f>0.21/0.8</f>
         <v>0.26249999999999996</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="19">
         <f>0.21/0.8</f>
         <v>0.26249999999999996</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="19">
         <f>0.13/0.8</f>
         <v>0.16250000000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="20">
         <f>2.56/0.8</f>
         <v>3.1999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
         <f>-1.19/18</f>
         <v>-6.6111111111111107E-2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="21">
         <f>-0.04/18</f>
         <v>-2.2222222222222222E-3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="21">
         <f>0.21/18</f>
         <v>1.1666666666666665E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="22">
         <f>1.24/18</f>
         <v>6.8888888888888888E-2</v>
       </c>
@@ -732,14 +805,14 @@
         <v>-1.5591099580643502</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12">
         <f>($G$3^I11)/(1-$G$3)*MAX(ABS($D$10-$B$10),ABS($D$11-$B$11),ABS($D$12-$B$12),ABS($D$13-$B$13))</f>
         <v>1.265814265465147</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -804,7 +877,7 @@
     </row>
     <row r="16" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="13">
         <f>$B$3*D15+$C$3*D12+$D$3*D13+$E$3</f>
@@ -869,7 +942,7 @@
     </row>
     <row r="21" spans="3:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" ref="D21" si="2">$B$3*D20+$C$3*D17+$D$3*D18+$E$3</f>
@@ -936,7 +1009,7 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" ref="D26" si="6">$B$3*D25+$C$3*D22+$D$3*D23+$E$3</f>
@@ -1001,7 +1074,7 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" ref="D31" si="10">$B$3*D30+$C$3*D27+$D$3*D28+$E$3</f>
@@ -1045,7 +1118,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" ref="D36" si="14">$B$3*D35+$C$3*D32+$D$3*D33+$E$3</f>
@@ -1074,8 +1147,8 @@
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41">
-        <v>7</v>
+      <c r="C41" t="s">
+        <v>11</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" ref="D41" si="18">$B$3*D40+$C$3*D37+$D$3*D38+$E$3</f>
@@ -1104,8 +1177,8 @@
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <v>8</v>
+      <c r="C46" t="s">
+        <v>12</v>
       </c>
       <c r="D46" s="13">
         <f t="shared" ref="D46" si="22">$B$3*D45+$C$3*D42+$D$3*D43+$E$3</f>
@@ -1134,8 +1207,8 @@
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51">
-        <v>9</v>
+      <c r="C51" t="s">
+        <v>13</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" ref="D51" si="26">$B$3*D50+$C$3*D47+$D$3*D48+$E$3</f>
@@ -1164,8 +1237,8 @@
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <v>10</v>
+      <c r="C56" t="s">
+        <v>14</v>
       </c>
       <c r="D56" s="13">
         <f t="shared" ref="D56" si="30">$B$3*D55+$C$3*D52+$D$3*D53+$E$3</f>
@@ -1194,8 +1267,8 @@
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <v>11</v>
+      <c r="C61" t="s">
+        <v>15</v>
       </c>
       <c r="D61" s="13">
         <f t="shared" ref="D61" si="34">$B$3*D60+$C$3*D57+$D$3*D58+$E$3</f>
@@ -1224,8 +1297,8 @@
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C66">
-        <v>12</v>
+      <c r="C66" t="s">
+        <v>16</v>
       </c>
       <c r="D66" s="13">
         <f t="shared" ref="D66" si="38">$B$3*D65+$C$3*D62+$D$3*D63+$E$3</f>
@@ -1254,8 +1327,8 @@
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C71">
-        <v>13</v>
+      <c r="C71" t="s">
+        <v>17</v>
       </c>
       <c r="D71" s="13">
         <f t="shared" ref="D71" si="42">$B$3*D70+$C$3*D67+$D$3*D68+$E$3</f>
@@ -1285,8 +1358,8 @@
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C76">
-        <v>14</v>
+      <c r="C76" t="s">
+        <v>18</v>
       </c>
       <c r="D76" s="13">
         <f t="shared" ref="D76" si="46">$B$3*D75+$C$3*D72+$D$3*D73+$E$3</f>
@@ -1315,8 +1388,8 @@
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C81">
-        <v>15</v>
+      <c r="C81" t="s">
+        <v>19</v>
       </c>
       <c r="D81" s="13">
         <f t="shared" ref="D81" si="50">$B$3*D80+$C$3*D77+$D$3*D78+$E$3</f>
@@ -1345,8 +1418,8 @@
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C86" s="16">
-        <v>16</v>
+      <c r="C86" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D86" s="13">
         <f t="shared" ref="D86" si="54">$B$3*D85+$C$3*D82+$D$3*D83+$E$3</f>
@@ -1375,8 +1448,8 @@
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C91">
-        <v>17</v>
+      <c r="C91" t="s">
+        <v>21</v>
       </c>
       <c r="D91" s="13">
         <f t="shared" ref="D91" si="58">$B$3*D90+$C$3*D87+$D$3*D88+$E$3</f>
@@ -1406,8 +1479,8 @@
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C96">
-        <v>18</v>
+      <c r="C96" t="s">
+        <v>22</v>
       </c>
       <c r="D96" s="13">
         <f t="shared" ref="D96" si="62">$B$3*D95+$C$3*D92+$D$3*D93+$E$3</f>
@@ -1436,8 +1509,8 @@
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C101">
-        <v>19</v>
+      <c r="C101" t="s">
+        <v>23</v>
       </c>
       <c r="D101" s="13">
         <f t="shared" ref="D101" si="66">$B$3*D100+$C$3*D97+$D$3*D98+$E$3</f>
@@ -1466,8 +1539,8 @@
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C106">
-        <v>20</v>
+      <c r="C106" t="s">
+        <v>24</v>
       </c>
       <c r="D106" s="13">
         <f t="shared" ref="D106" si="70">$B$3*D105+$C$3*D102+$D$3*D103+$E$3</f>
@@ -1496,8 +1569,8 @@
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C111">
-        <v>21</v>
+      <c r="C111" t="s">
+        <v>25</v>
       </c>
       <c r="D111" s="13">
         <f t="shared" ref="D111" si="74">$B$3*D110+$C$3*D107+$D$3*D108+$E$3</f>
@@ -1520,21 +1593,36 @@
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D115" s="13"/>
+      <c r="D115" s="13">
+        <f t="shared" ref="D115" si="77">$B$2*D111+$C$2*D112+$D$2*D113+$E$2</f>
+        <v>-0.13054935339104529</v>
+      </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C116">
-        <v>22</v>
-      </c>
-      <c r="D116" s="13"/>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="13">
+        <f t="shared" ref="D116" si="78">$B$3*D115+$C$3*D112+$D$3*D113+$E$3</f>
+        <v>-1.4951993350883801</v>
+      </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D117" s="13"/>
+      <c r="D117" s="13">
+        <f t="shared" ref="D117" si="79">$B$4*D115+$C$4*D116+$D$4*D113+$E$4</f>
+        <v>2.7916703875444298</v>
+      </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D118" s="13"/>
+      <c r="D118" s="13">
+        <f t="shared" ref="D118" si="80">$B$5*D115+$C$5*D116+$D$5*D117+$E$5</f>
+        <v>0.11341180474017828</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
